--- a/segunda_parte/3_minimos_cuadrados/aproximaciones.xlsx
+++ b/segunda_parte/3_minimos_cuadrados/aproximaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel\Desktop\UP\Calculo numerico\Codigo\segunda_parte\3_minimos_cuadrados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD75994E-86EE-402A-A60A-E0DF63BF6C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC7C415-3850-4DA7-9D22-D50704FC8FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{D82205AC-9EBD-4403-8F28-81F7B8ABF9CB}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{D82205AC-9EBD-4403-8F28-81F7B8ABF9CB}"/>
   </bookViews>
   <sheets>
     <sheet name="lineal" sheetId="1" r:id="rId1"/>
@@ -3995,16 +3995,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4475,7 +4475,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5141,7 +5141,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
